--- a/documents/Sprintin tehtävälista.xlsx
+++ b/documents/Sprintin tehtävälista.xlsx
@@ -525,7 +525,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -698,11 +697,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="95011968"/>
-        <c:axId val="95013888"/>
+        <c:axId val="88781952"/>
+        <c:axId val="88783872"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="95011968"/>
+        <c:axId val="88781952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -724,14 +723,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95013888"/>
+        <c:crossAx val="88783872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -739,7 +737,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="95013888"/>
+        <c:axId val="88783872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -762,21 +760,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95011968"/>
+        <c:crossAx val="88781952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>

--- a/documents/Sprintin tehtävälista.xlsx
+++ b/documents/Sprintin tehtävälista.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="120" windowWidth="14115" windowHeight="8670"/>
+    <workbookView xWindow="600" yWindow="120" windowWidth="14115" windowHeight="8670" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sprintin tehtävälista" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="48">
   <si>
     <t>Get Status</t>
   </si>
@@ -135,9 +135,6 @@
     <t>Tarinan keksintä</t>
   </si>
   <si>
-    <t>Liikkuminen</t>
-  </si>
-  <si>
     <t>Jari</t>
   </si>
   <si>
@@ -166,6 +163,24 @@
   </si>
   <si>
     <t>Late</t>
+  </si>
+  <si>
+    <t>Tile-editorin etsintä ja kenttien valmistaminen</t>
+  </si>
+  <si>
+    <t>Kamera seuraa ukkoa</t>
+  </si>
+  <si>
+    <t>Taustakuva ladattu peliin ja näytetään</t>
+  </si>
+  <si>
+    <t>Ukko liikkuu</t>
+  </si>
+  <si>
+    <t>Ukko liikkuu animoidusti</t>
+  </si>
+  <si>
+    <t>Done</t>
   </si>
 </sst>
 </file>
@@ -525,6 +540,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -585,19 +601,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>32</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="4">
                   <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -668,10 +684,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>32</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -697,11 +713,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="88781952"/>
-        <c:axId val="88783872"/>
+        <c:axId val="145339520"/>
+        <c:axId val="145341440"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="88781952"/>
+        <c:axId val="145339520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -723,13 +739,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88783872"/>
+        <c:crossAx val="145341440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -737,7 +754,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="88783872"/>
+        <c:axId val="145341440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -760,19 +777,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88781952"/>
+        <c:crossAx val="145339520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -1121,11 +1140,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1182,7 +1201,7 @@
         <v>27</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D2" s="30">
         <v>4</v>
@@ -1201,7 +1220,7 @@
         <v>28</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D3" s="30">
         <v>8</v>
@@ -1220,7 +1239,7 @@
         <v>29</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D4" s="30">
         <v>4</v>
@@ -1236,10 +1255,10 @@
     <row r="5" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="21"/>
       <c r="B5" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D5" s="2">
         <v>12</v>
@@ -1257,7 +1276,7 @@
         <v>30</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D6" s="2">
         <v>4</v>
@@ -1271,10 +1290,10 @@
     </row>
     <row r="7" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1283,29 +1302,56 @@
         <v>31</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="21"/>
       <c r="B9" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="31" t="s">
-        <v>33</v>
+      <c r="F9" s="24" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="21"/>
+      <c r="B10" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10">
+        <v>24</v>
+      </c>
     </row>
     <row r="11" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="21"/>
+      <c r="B11" s="31" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="12" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="21"/>
+      <c r="B12" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="24" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="13" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="21"/>
+      <c r="B13" s="31" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="14" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="21"/>
@@ -1444,7 +1490,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V42"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -1542,11 +1588,11 @@
       </c>
       <c r="L2" s="9">
         <f>SUM('Sprintin tehtävälista'!D2:D27)</f>
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="M2" s="9">
         <f>L2</f>
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="N2" s="9"/>
       <c r="O2" s="9"/>
@@ -1576,11 +1622,11 @@
       </c>
       <c r="L3" s="9">
         <f>L2-($C$5*$C$7)</f>
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="M3" s="9">
         <f>M2-(SUM(N3:V3))</f>
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="N3" s="10">
         <v>4</v>
@@ -1615,7 +1661,7 @@
       </c>
       <c r="L4" s="9">
         <f t="shared" ref="L4:L6" si="0">L3-($C$5*$C$7)</f>
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="M4" s="9"/>
       <c r="N4" s="10"/>
@@ -1646,7 +1692,7 @@
       </c>
       <c r="L5" s="9">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="M5" s="9"/>
       <c r="N5" s="10"/>
@@ -1677,7 +1723,7 @@
       </c>
       <c r="L6" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="M6" s="9"/>
       <c r="N6" s="10"/>

--- a/documents/Sprintin tehtävälista.xlsx
+++ b/documents/Sprintin tehtävälista.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="120" windowWidth="14115" windowHeight="8670" activeTab="1"/>
+    <workbookView xWindow="600" yWindow="120" windowWidth="14115" windowHeight="8670"/>
   </bookViews>
   <sheets>
     <sheet name="Sprintin tehtävälista" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="48">
   <si>
     <t>Get Status</t>
   </si>
@@ -540,7 +540,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -713,11 +712,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="145339520"/>
-        <c:axId val="145341440"/>
+        <c:axId val="90952448"/>
+        <c:axId val="90954368"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="145339520"/>
+        <c:axId val="90952448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -739,14 +738,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145341440"/>
+        <c:crossAx val="90954368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -754,7 +752,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="145341440"/>
+        <c:axId val="90954368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -777,21 +775,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145339520"/>
+        <c:crossAx val="90952448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -1140,11 +1136,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S55"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1352,6 +1348,12 @@
       <c r="B13" s="31" t="s">
         <v>46</v>
       </c>
+      <c r="C13" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="24" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="14" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="21"/>
@@ -1490,7 +1492,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -1649,7 +1651,7 @@
       </c>
       <c r="C4" s="32">
         <f ca="1">TODAY()</f>
-        <v>41346</v>
+        <v>41360</v>
       </c>
       <c r="D4" s="8"/>
       <c r="I4" s="3"/>
